--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T17:03:27+00:00</t>
+    <t>2021-12-14T17:16:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T17:16:17+00:00</t>
+    <t>2021-12-14T17:36:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T17:36:58+00:00</t>
+    <t>2021-12-15T14:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T14:39:43+00:00</t>
+    <t>2021-12-15T15:05:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T15:05:59+00:00</t>
+    <t>2021-12-15T15:14:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T15:14:18+00:00</t>
+    <t>2022-01-20T10:16:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>HL7® Austria FHIR® Core Profile for address data in Austria.</t>
+    <t>HL7® Austria FHIR® Core Profile for address data in Austria. Note, this extension represents the common structure of address information within Austrian information systems. This extension does not restrict the documented information to Austrian adresses. Address information that does not fit into the given structure may be captured by [Address Additional Information](StructureDefinition-at-core-ext-address-additionalInformation.html).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:16:45+00:00</t>
+    <t>2022-01-20T10:22:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:22:21+00:00</t>
+    <t>2022-01-20T10:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:27:00+00:00</t>
+    <t>2022-01-20T10:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:31:27+00:00</t>
+    <t>2022-01-20T10:44:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:44:52+00:00</t>
+    <t>2022-01-20T10:52:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:52:35+00:00</t>
+    <t>2022-01-20T10:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:59:42+00:00</t>
+    <t>2022-01-20T11:05:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T11:05:16+00:00</t>
+    <t>2022-01-20T11:15:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T11:15:25+00:00</t>
+    <t>2022-01-20T11:32:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T11:32:29+00:00</t>
+    <t>2022-01-20T12:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T12:45:34+00:00</t>
+    <t>2022-01-20T12:53:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T12:53:52+00:00</t>
+    <t>2022-01-20T12:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T12:57:34+00:00</t>
+    <t>2022-01-20T12:58:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T12:58:26+00:00</t>
+    <t>2022-01-20T14:44:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
